--- a/Timekeeping.xlsx
+++ b/Timekeeping.xlsx
@@ -1,38 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David Blackman\Desktop\Data Entry Form\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB705130-939B-49B7-BA8A-58A6D09B5C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-1560" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>ID</t>
   </si>
   <si>
     <t>Product</t>
+  </si>
+  <si>
+    <t>Operation</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Puzzles</t>
+  </si>
+  <si>
+    <t>Router</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,14 +101,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -149,7 +147,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -181,27 +179,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -233,24 +213,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -426,21 +388,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Timekeeping.xlsx
+++ b/Timekeeping.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>ID</t>
   </si>
@@ -25,13 +25,31 @@
     <t>Operation</t>
   </si>
   <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
     <t>12</t>
   </si>
   <si>
     <t>Puzzles</t>
   </si>
   <si>
+    <t>Chalkboards</t>
+  </si>
+  <si>
     <t>Router</t>
+  </si>
+  <si>
+    <t>Laser</t>
+  </si>
+  <si>
+    <t>04/05/2023, 12:00:48</t>
   </si>
 </sst>
 </file>
@@ -389,13 +407,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -405,16 +423,68 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>3</v>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Timekeeping.xlsx
+++ b/Timekeeping.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16078\Desktop\data entry\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A01A369-A444-43CB-8670-5F5711427929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="3630" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>ID</t>
   </si>
@@ -32,31 +38,13 @@
   </si>
   <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Puzzles</t>
-  </si>
-  <si>
-    <t>Chalkboards</t>
-  </si>
-  <si>
-    <t>Router</t>
-  </si>
-  <si>
-    <t>Laser</t>
-  </si>
-  <si>
-    <t>04/05/2023, 12:00:48</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +107,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -165,7 +161,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -197,9 +193,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -231,6 +245,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -406,14 +438,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -431,60 +469,6 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
